--- a/metadata/2022/hwb_metadata_survey_questions_for_publication.xlsx
+++ b/metadata/2022/hwb_metadata_survey_questions_for_publication.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scotsconnect-my.sharepoint.com/personal/victoria_dunn_gov_scot/Documents/Git Repos/HWB Rap Project/hwb-census/metadata/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F4BE0CD1-C252-4F52-9D84-944D06B92C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A54F5B67-18AE-499B-9C02-8B7C0C4509FB}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{F4BE0CD1-C252-4F52-9D84-944D06B92C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6805FA2E-DB8A-4BF6-88E0-41A373F9A0CC}"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="-16470" windowWidth="29040" windowHeight="15840" xr2:uid="{A44B066A-E19B-4151-83C9-85E4A97229E4}"/>
+    <workbookView xWindow="60" yWindow="-16200" windowWidth="14400" windowHeight="15600" xr2:uid="{A44B066A-E19B-4151-83C9-85E4A97229E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -532,6 +532,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -833,14 +837,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866309C6-22AB-4C70-9E7C-F15A386A42DA}">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.7265625" customWidth="1"/>
+    <col min="2" max="2" width="255.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
